--- a/Data/ttest_H1.xlsx
+++ b/Data/ttest_H1.xlsx
@@ -1,37 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gallarusindustrysolutions-my.sharepoint.com/personal/sclifford_gis_ie/Documents/MscDataAnalytics/MScDataAnalyticsCA2/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_67D920078231921FD2FE31D2F8F2D3C294D7E6B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DDF6198-148A-45D8-BBEE-C0125486DA86}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-2340" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>AT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>EE</t>
   </si>
   <si>
     <t>ES</t>
   </si>
   <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>ME</t>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MK</t>
   </si>
   <si>
     <t>MT</t>
@@ -40,16 +61,10 @@
     <t>NL</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SI</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
   <si>
     <t>IS-IP</t>
@@ -67,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,21 +100,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,151 +131,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -313,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,27 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,24 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,206 +433,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="b">
-        <v>1</v>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="b">
-        <v>0</v>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="b">
-        <v>1</v>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>1</v>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K5">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/ttest_H1.xlsx
+++ b/Data/ttest_H1.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -581,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
